--- a/user story examples.xlsx
+++ b/user story examples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cj/Documents/performance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cj/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08DE8C1C-8AE0-0541-838B-C19877B81FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086DB223-DB57-B246-A075-5F389EAB5933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{886382B2-C4B0-AC4A-98CB-8A58ED7DFC3C}"/>
+    <workbookView xWindow="2520" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{886382B2-C4B0-AC4A-98CB-8A58ED7DFC3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>REPORTS APP</t>
   </si>
@@ -210,6 +210,83 @@
   </si>
   <si>
     <t>Should be able to fail some grouped samples, complete all &amp; save the worksheet in transpose view.</t>
+  </si>
+  <si>
+    <t>User Story 12: As a user in the reports app, I can use Dashbaord links in the nav bar</t>
+  </si>
+  <si>
+    <t>RP-12-1</t>
+  </si>
+  <si>
+    <t>Reports button</t>
+  </si>
+  <si>
+    <t>in the dashboard app</t>
+  </si>
+  <si>
+    <t>- navigate away from the reports main page
+- click Reports button</t>
+  </si>
+  <si>
+    <t>You should navigate to the reports main page</t>
+  </si>
+  <si>
+    <t>RP-12-2</t>
+  </si>
+  <si>
+    <t>DASHBOARD link</t>
+  </si>
+  <si>
+    <t>in the reports app</t>
+  </si>
+  <si>
+    <t>- navigate away from the dashboard main page
+- click DASHBOARD button</t>
+  </si>
+  <si>
+    <t>You should navigate to the dashbaord main page</t>
+  </si>
+  <si>
+    <t>User Story 13: As a user in Reports when I am under Group tab, I can view details of reports in the Inspector Panel</t>
+  </si>
+  <si>
+    <t>RP-13-1</t>
+  </si>
+  <si>
+    <t>Inspector in group tab</t>
+  </si>
+  <si>
+    <t>On Reports main page</t>
+  </si>
+  <si>
+    <t>- Click on project row</t>
+  </si>
+  <si>
+    <t>Inspector panel should open</t>
+  </si>
+  <si>
+    <t>RP-13-2</t>
+  </si>
+  <si>
+    <t>Details of Inspector Panel</t>
+  </si>
+  <si>
+    <t>In inspector panel</t>
+  </si>
+  <si>
+    <t>Inspector panel should show details: Name, Desc, Tags, Owner, Last Update and View Details link</t>
+  </si>
+  <si>
+    <t>RP-13-3</t>
+  </si>
+  <si>
+    <t>View Details' link</t>
+  </si>
+  <si>
+    <t>- Click on "View Details" link in inpsector panel</t>
+  </si>
+  <si>
+    <t>Should open report in a new page</t>
   </si>
 </sst>
 </file>
@@ -290,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -315,6 +392,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,14 +713,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271083CC-3C66-2740-B31A-F1747A39C456}">
-  <dimension ref="A2:K17"/>
+  <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" customWidth="1"/>
@@ -659,309 +743,476 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="A7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>40</v>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" ht="252" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>45</v>
-      </c>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" ht="345" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>50</v>
-      </c>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="252" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" s="7" customFormat="1" ht="345" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
